--- a/SED Builder/SED Builder.xlsx
+++ b/SED Builder/SED Builder.xlsx
@@ -725,16 +725,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="90.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
@@ -752,9 +754,6 @@
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
         <v>69</v>
       </c>
@@ -795,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="P1" t="str">
-        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1)</f>
+        <f>CONCATENATE(A1,B3,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/1.CENTRALIDADE_REDE COMPLETA  - TODAS RELAÇÕES EXISTENTES/g' ~/SNArRDJF/full_no_zero.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/1.CENTRALIDADE_REDE_COMPLETA_TODAS_RELAÇÕES_EXISTENTES.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -803,9 +802,6 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
       <c r="C2" t="s">
         <v>69</v>
       </c>
@@ -846,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="P2" t="str">
-        <f t="shared" ref="P2:P31" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2)</f>
+        <f>CONCATENATE(A2,B4,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/2.CENTRALIDADE_RELACIONAMENTO FORMAL/g' ~/SNArRDJF/Scripts_Original/var0.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/2.CENTRALIDADE_RELACIONAMENTO_FORMAL.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -855,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
@@ -897,7 +893,7 @@
         <v>8</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A3,B5,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/3.CENTRALIDADE_REFERENCIA DE ENVIO/g' ~/SNArRDJF/Scripts_Original/var1.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/3.CENTRALIDADE_REFERENCIA_DE_ENVIO.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -906,7 +902,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -948,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A4,B6,C4,D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/4.CENTRALIDADE_REFERENCIA DE RECEBIMENTO CONTRAREFERENCIA/g' ~/SNArRDJF/Scripts_Original/var2.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/4.CENTRALIDADE_REFERENCIA_DE_RECEBIMENTO_CONTRAREFERENCIA.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -957,7 +953,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -999,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A5,B7,C5,D5,E5,F5,G5,H5,I5,J5,K5,L5,M5,N5,O5)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/5.CENTRALIDADE_COORDENAÇÃO CONJUNTA DE CASOS/g' ~/SNArRDJF/Scripts_Original/var3.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/5.CENTRALIDADE_COORDENAÇÃO_CONJUNTA_DE_CASOS.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1008,7 +1004,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>69</v>
@@ -1050,7 +1046,7 @@
         <v>8</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A6,B8,C6,D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/6.CENTRALIDADE_PROGRAMAS EM CONJUNTO/g' ~/SNArRDJF/Scripts_Original/var4.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/6.CENTRALIDADE_PROGRAMAS_EM_CONJUNTO.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1059,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
@@ -1101,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A7,B9,C7,D7,E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/7.CENTRALIDADE_OFERTA DE TREINAMENTOS CAPACITAÇÕES/g' ~/SNArRDJF/Scripts_Original/var5.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/7.CENTRALIDADE_OFERTA_DE_TREINAMENTOS_CAPACITAÇÕES.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1110,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
@@ -1152,7 +1148,7 @@
         <v>8</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A8,B10,C8,D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,N8,O8)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/8.CENTRALIDADE_RECEBER TREINAMENTOS CAPACITAÇÕES/g' ~/SNArRDJF/Scripts_Original/var6.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/8.CENTRALIDADE_RECEBER_TREINAMENTOS_CAPACITAÇÕES.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1161,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>69</v>
@@ -1203,7 +1199,7 @@
         <v>8</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A9,B11,C9,D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/9.CENTRALIDADE_ACESSO A) Este serviço mostra-se disponível para realização de ativades em conjunto./g' ~/SNArRDJF/Scripts_Original/var7.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/9.CENTRALIDADE_ACESSO_A_realização_de_ativades_em_conjunto..Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1212,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -1254,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A10,B12,C10,D10,E10,F10,G10,H10,I10,J10,K10,L10,M10,N10,O10)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/10.CENTRALIDADE_ACESSO B) O horário de funcionamento deste serviço possibilita a realização de ações em conjunto./g' ~/SNArRDJF/Scripts_Original/var8.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/10.CENTRALIDADE_ACESSO_B_realização_de_ações_em_conjunto..Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1263,7 +1259,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -1305,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A11,B13,C11,D11,E11,F11,G11,H11,I11,J11,K11,L11,M11,N11,O11)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/11.CENTRALIDADE_ACESSO C) Este serviço disponibiliza informações sobre suas ativades para o seu serviço./g' ~/SNArRDJF/Scripts_Original/var9.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/11.CENTRALIDADE_ACESSO_C_disponibiliza_informações..Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1314,7 +1310,7 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -1356,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A12,B14,C12,D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,O12)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/12.CENTRALIDADE_ACESSO D) O seu serviço consegue acessar facilmente informações deste serviço./g' ~/SNArRDJF/Scripts_Original/var10.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/12.CENTRALIDADE_ACESSO_D_acessar_facilmente_informações..Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1365,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
@@ -1407,7 +1403,7 @@
         <v>8</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A13,B15,C13,D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/13.CENTRALIDADE_ACESSO E) Os canais de comunicação com este serviço são suficientes para realização de ações em conjunto./g' ~/SNArRDJF/Scripts_Original/var11.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/13.CENTRALIDADE_ACESSO_E_canais_de_comunicação_suficientes..Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1416,7 +1412,7 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>69</v>
@@ -1458,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A14,B16,C14,D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,N14,O14)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/14.CENTRALIDADE_ACESSO F) Seu serviço tem facilade de entrar em contato com este serviço para realizar ativades em conjunto./g' ~/SNArRDJF/Scripts_Original/var12.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/14.CENTRALIDADE_ACESSO_F_entrar_em_contato_ara_realizar_ativades.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1467,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>69</v>
@@ -1509,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A15,B17,C15,D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/15.CENTRALIDADE_ACESSO G) O acesso geográfico a este serviço impede a realização de ativades em conjunto. /g' ~/SNArRDJF/Scripts_Original/var13.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/15.CENTRALIDADE_ACESSO_G_O_acesso_geográfico_impede.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1518,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
@@ -1560,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A16,B18,C16,D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,N16,O16)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/16.CENTRALIDADE_ACESSO H) O custo para acessar este serviço impede a realização de ativades em conjunto./g' ~/SNArRDJF/Scripts_Original/var14.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/16.CENTRALIDADE_ACESSO_H_O_custo_para_acessar.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1569,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -1611,7 +1607,7 @@
         <v>8</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A17,B19,C17,D17,E17,F17,G17,H17,I17,J17,K17,L17,M17,N17,O17)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/17.CENTRALIDADE_ACESSO I) O tempo gasto para acessar este serviço impede a realização ativades em conjunto./g' ~/SNArRDJF/Scripts_Original/var15.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/17.CENTRALIDADE_ACESSO_I_O_tempo_gasto_para_acessar_este_serviço_.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1620,7 +1616,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>69</v>
@@ -1662,7 +1658,7 @@
         <v>8</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A18,B20,C18,D18,E18,F18,G18,H18,I18,J18,K18,L18,M18,N18,O18)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/18.CENTRALIDADE_CONFIANÇA A) Confia na qualificação profissional da equipe deste serviço /g' ~/SNArRDJF/Scripts_Original/var16.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/18.CENTRALIDADE_CONFIANÇA_A_Confia_na_qualificação_profissional_.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1671,7 +1667,7 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>69</v>
@@ -1713,7 +1709,7 @@
         <v>8</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A19,B21,C19,D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/19.CENTRALIDADE_CONFIANÇA B) Confia na capacade técnica da equipe deste serviço./g' ~/SNArRDJF/Scripts_Original/var17.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/19.CENTRALIDADE_CONFIANÇA_B_Confia_na_capacade_técnica_.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1722,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>69</v>
@@ -1764,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A20,B22,C20,D20,E20,F20,G20,H20,I20,J20,K20,L20,M20,N20,O20)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/20.CENTRALIDADE_CONFIANÇA C) Confia nas ações realizadas por este serviço./g' ~/SNArRDJF/Scripts_Original/var18.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/20.CENTRALIDADE_CONFIANÇA_C_Confia_nas_ações_realizadas_.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1773,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>69</v>
@@ -1815,7 +1811,7 @@
         <v>8</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A21,B23,C21,D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/21.CENTRALIDADE_CONFIANÇA D) Confia em compartilhar informações internas com este serviço. /g' ~/SNArRDJF/Scripts_Original/var19.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/21.CENTRALIDADE_CONFIANÇA_D_Confia_em_compartilhar_informações_.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1824,7 +1820,7 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>69</v>
@@ -1866,7 +1862,7 @@
         <v>8</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A22,B24,C22,D22,E22,F22,G22,H22,I22,J22,K22,L22,M22,N22,O22)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/22.CENTRALIDADE_CONFIANÇA E) Confia nas informações recebas deste serviço./g' ~/SNArRDJF/Scripts_Original/var20.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/22.CENTRALIDADE_CONFIANÇA_E_Confia_nas_informações_recebidas..Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1875,7 +1871,7 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>69</v>
@@ -1917,7 +1913,7 @@
         <v>8</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A23,B25,C23,D23,E23,F23,G23,H23,I23,J23,K23,L23,M23,N23,O23)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/23.CENTRALIDADE_CONFIANÇA F) Confia em realizar ações conjuntas com este serviço./g' ~/SNArRDJF/Scripts_Original/var21.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/23.CENTRALIDADE_CONFIANÇA_F_Confia_em_realizar_ações_conjuntas.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1926,7 +1922,7 @@
         <v>7</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>69</v>
@@ -1968,7 +1964,7 @@
         <v>8</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A24,B26,C24,D24,E24,F24,G24,H24,I24,J24,K24,L24,M24,N24,O24)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/24.CENTRALIDADE_CONFIANÇA G) Está satisfeito com as ações desempenhadas por este serviço./g' ~/SNArRDJF/Scripts_Original/var22.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/24.CENTRALIDADE_CONFIANÇA_G_Está_satisfeito_com_as_ações_desempenhadas.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -1977,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>69</v>
@@ -2019,7 +2015,7 @@
         <v>8</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A25,B27,C25,D25,E25,F25,G25,H25,I25,J25,K25,L25,M25,N25,O25)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/25.CENTRALIDADE_CONFIANÇA H) Espera que o relacionamento com este serviço continue nos próximos anos./g' ~/SNArRDJF/Scripts_Original/var23.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/25.CENTRALIDADE_CONFIANÇA_H_Relacionamento_continue_nos_próximos_anos..Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -2028,7 +2024,7 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>69</v>
@@ -2070,7 +2066,7 @@
         <v>8</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A26,B28,C26,D26,E26,F26,G26,H26,I26,J26,K26,L26,M26,N26,O26)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/26.CENTRALIDADE_CONFIANÇA I) Espera que o relacionamento com este serviço se fortaleça nos próximos anos./g' ~/SNArRDJF/Scripts_Original/var24.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/26.CENTRALIDADE_CONFIANÇA_I_Relacionamento_se_fortaleça_nos_próximos_anos..Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -2079,7 +2075,7 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>69</v>
@@ -2121,7 +2117,7 @@
         <v>8</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A27,B29,C27,D27,E27,F27,G27,H27,I27,J27,K27,L27,M27,N27,O27)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/27.CENTRALIDADE_ATIVIDADE/g' ~/SNArRDJF/Scripts_Original/atividade.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/27.CENTRALIDADE_ATIVIDADE.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -2130,7 +2126,7 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>69</v>
@@ -2172,7 +2168,7 @@
         <v>8</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A28,B30,C28,D28,E28,F28,G28,H28,I28,J28,K28,L28,M28,N28,O28)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/28.CENTRALIDADE_ACESSO/g' ~/SNArRDJF/Scripts_Original/acesso.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/28.CENTRALIDADE_ACESSO.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -2181,7 +2177,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>69</v>
@@ -2223,7 +2219,7 @@
         <v>8</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A29,B31,C29,D29,E29,F29,G29,H29,I29,J29,K29,L29,M29,N29,O29)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/29.CENTRALIDADE_CONFIANÇA/g' ~/SNArRDJF/Scripts_Original/confianca.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/29.CENTRALIDADE_CONFIANÇA.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -2232,7 +2228,7 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>69</v>
@@ -2274,7 +2270,7 @@
         <v>8</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A30,B32,C30,D30,E30,F30,G30,H30,I30,J30,K30,L30,M30,N30,O30)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/30.CENTRALIDADE_ACESSO E CONFIANÇA/g' ~/SNArRDJF/Scripts_Original/acessoeconfianca.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/30.CENTRALIDADE_ACESSO_E_CONFIANÇA.Rmd" %&gt;% system()</v>
       </c>
     </row>
@@ -2283,7 +2279,7 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>69</v>
@@ -2325,8 +2321,18 @@
         <v>8</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A31,B33,C31,D31,E31,F31,G31,H31,I31,J31,K31,L31,M31,N31,O31)</f>
         <v>x&lt;-"sed -e 's/full_no_zero_fancy/31.CENTRALIDADE_TOTAL/g' ~/SNArRDJF/Scripts_Original/total.Rmd &gt;  ~/SNArRDJF/Scripts_Finais/Centralidade/31.CENTRALIDADE_TOTAL.Rmd" %&gt;% system()</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
